--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2407285.433710384</v>
+        <v>-2409868.465780113</v>
       </c>
     </row>
     <row r="7">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>26.89854620008994</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>29.76498982117789</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.708498988316</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>28.46932083023307</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>53.54735467376847</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>256.395476851557</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>257.5310302888595</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +990,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
         <v>18.81721868247742</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>22.42534453352328</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>133.0371125679854</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>321.9507867550633</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>258.3345018800796</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>72.93440611449472</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>199.4713234884463</v>
       </c>
     </row>
     <row r="11">
@@ -1373,13 +1373,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206815</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741713</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>141.6930519056946</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1579,10 +1579,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>151.3113851298087</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444127</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>35.23631477519706</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2005,22 +2005,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>45.66054613217684</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>123.9815576456773</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>38.95525409458294</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>93.4044447618831</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>94.64226186542923</v>
+        <v>21.23835815356738</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0385136149756</v>
+        <v>171.0385136149758</v>
       </c>
       <c r="C28" t="n">
-        <v>158.4533545316662</v>
+        <v>158.4533545316663</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>136.6275814559696</v>
+        <v>44.7679377882242</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7306717253072</v>
+        <v>156.7306717253073</v>
       </c>
       <c r="H28" t="n">
-        <v>39.64160261151985</v>
+        <v>131.5012462792623</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160385</v>
+        <v>72.47236975160399</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.58178014316</v>
+        <v>57.58178014316015</v>
       </c>
       <c r="S28" t="n">
-        <v>172.2328194346829</v>
+        <v>172.2328194346831</v>
       </c>
       <c r="T28" t="n">
-        <v>208.6119837603266</v>
+        <v>208.6119837603267</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3910078222825</v>
+        <v>277.3910078222826</v>
       </c>
       <c r="V28" t="n">
-        <v>243.3441767568663</v>
+        <v>243.3441767568665</v>
       </c>
       <c r="W28" t="n">
-        <v>277.7295317696294</v>
+        <v>277.7295317696295</v>
       </c>
       <c r="X28" t="n">
-        <v>216.9161888220755</v>
+        <v>216.9161888220756</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.7911867851331</v>
+        <v>209.7911867851332</v>
       </c>
     </row>
     <row r="29">
@@ -2962,13 +2962,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002294</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3475,7 +3475,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>1148.130683918831</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>779.1681669784195</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784197</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234163</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218343</v>
@@ -4331,49 +4331,49 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2982.16715683353</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2651.104269489959</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450755</v>
+        <v>2298.335614219845</v>
       </c>
       <c r="X2" t="n">
-        <v>2394.678395166736</v>
+        <v>1924.869855958765</v>
       </c>
       <c r="Y2" t="n">
-        <v>2004.539063190924</v>
+        <v>1534.730523982953</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064539</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218343</v>
@@ -4413,7 +4413,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4434,25 +4434,25 @@
         <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95.26900615969157</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C4" t="n">
-        <v>95.26900615969157</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>95.26900615969157</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>95.26900615969157</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
         <v>66.51211643218343</v>
@@ -4486,7 +4486,7 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
@@ -4507,31 +4507,31 @@
         <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757128</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025391</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>639.3706644025391</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U4" t="n">
-        <v>639.3706644025391</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="V4" t="n">
-        <v>384.6861761966522</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="W4" t="n">
-        <v>95.26900615969157</v>
+        <v>120.600353476394</v>
       </c>
       <c r="X4" t="n">
-        <v>95.26900615969157</v>
+        <v>120.600353476394</v>
       </c>
       <c r="Y4" t="n">
-        <v>95.26900615969157</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1257.755181644084</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C5" t="n">
-        <v>888.7926647036722</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>530.5269660969217</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796416</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535336</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y5" t="n">
-        <v>1644.355021708206</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.0549803959802</v>
+        <v>699.120390387711</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959802</v>
+        <v>530.1842074598042</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959802</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959802</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877109</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U7" t="n">
-        <v>564.7394686018671</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V7" t="n">
-        <v>310.0549803959802</v>
+        <v>699.120390387711</v>
       </c>
       <c r="W7" t="n">
-        <v>310.0549803959802</v>
+        <v>699.120390387711</v>
       </c>
       <c r="X7" t="n">
-        <v>310.0549803959802</v>
+        <v>699.120390387711</v>
       </c>
       <c r="Y7" t="n">
-        <v>310.0549803959802</v>
+        <v>699.120390387711</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1528.069587875904</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="C8" t="n">
-        <v>1528.069587875904</v>
+        <v>1535.524858594926</v>
       </c>
       <c r="D8" t="n">
-        <v>1528.069587875904</v>
+        <v>1177.259159988176</v>
       </c>
       <c r="E8" t="n">
-        <v>1142.281335277659</v>
+        <v>791.4709073899314</v>
       </c>
       <c r="F8" t="n">
-        <v>731.2954304880518</v>
+        <v>784.525406640728</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>369.4529564857244</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176917</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915837</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y8" t="n">
-        <v>1914.669427940025</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="9">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.2129667142807</v>
+        <v>629.570363233848</v>
       </c>
       <c r="C10" t="n">
-        <v>438.2129667142807</v>
+        <v>629.570363233848</v>
       </c>
       <c r="D10" t="n">
-        <v>288.0963273019449</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E10" t="n">
-        <v>140.1832337195518</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>140.1832337195518</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>140.1832337195518</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4969,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V10" t="n">
-        <v>666.202517612298</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W10" t="n">
-        <v>666.202517612298</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="X10" t="n">
-        <v>438.2129667142807</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.2129667142807</v>
+        <v>629.570363233848</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5042,7 +5042,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,22 +5115,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703107</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424038</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>526.5658826424038</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>378.6527890600107</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138409</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703107</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="14">
@@ -5255,40 +5255,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,28 +5297,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.5477693179087</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>593.6115863900018</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>443.494946977666</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797744</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614388</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179087</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2383.002557118213</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2453.684166529967</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3051.062654156519</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>3678.660617711126</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>4230.570347950413</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>4654.193497445481</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400716</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400716</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="D19" t="n">
-        <v>363.7369613277358</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>365.9405071576775</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>219.0505596597671</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5686,22 +5686,22 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
         <v>1688.385853854706</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703113</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5750,19 +5750,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5841,10 +5841,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380891</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101822</v>
+        <v>411.9631215597623</v>
       </c>
       <c r="D22" t="n">
-        <v>422.7903292978465</v>
+        <v>411.9631215597623</v>
       </c>
       <c r="E22" t="n">
-        <v>274.8772357154535</v>
+        <v>411.9631215597623</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>411.9631215597623</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,49 +5911,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611859</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683289</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362675</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>710.248605371872</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797746</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1412.248478625013</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6236,10 +6236,10 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>663.4384611046049</v>
+        <v>663.4384611046023</v>
       </c>
       <c r="C28" t="n">
-        <v>503.3845676382754</v>
+        <v>503.3845676382728</v>
       </c>
       <c r="D28" t="n">
-        <v>503.3845676382754</v>
+        <v>503.3845676382728</v>
       </c>
       <c r="E28" t="n">
-        <v>503.3845676382754</v>
+        <v>503.3845676382728</v>
       </c>
       <c r="F28" t="n">
-        <v>365.3769096019425</v>
+        <v>458.1644284582483</v>
       </c>
       <c r="G28" t="n">
-        <v>207.0630997783999</v>
+        <v>299.8506186347056</v>
       </c>
       <c r="H28" t="n">
-        <v>167.0210769384808</v>
+        <v>167.021076938481</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>182.7582133795878</v>
+        <v>182.7582133795876</v>
       </c>
       <c r="K28" t="n">
-        <v>453.1530078064185</v>
+        <v>453.1530078064181</v>
       </c>
       <c r="L28" t="n">
-        <v>852.2571338836508</v>
+        <v>852.2571338836501</v>
       </c>
       <c r="M28" t="n">
         <v>1282.972368515977</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.087772077278</v>
+        <v>1709.087772077277</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.322584687555</v>
+        <v>2087.322584687554</v>
       </c>
       <c r="P28" t="n">
-        <v>2388.703572162406</v>
+        <v>2388.703572162404</v>
       </c>
       <c r="Q28" t="n">
-        <v>2516.607338790597</v>
+        <v>2516.607338790595</v>
       </c>
       <c r="R28" t="n">
-        <v>2458.443924504577</v>
+        <v>2458.443924504575</v>
       </c>
       <c r="S28" t="n">
-        <v>2284.471379621059</v>
+        <v>2284.471379621057</v>
       </c>
       <c r="T28" t="n">
-        <v>2073.752204105577</v>
+        <v>2073.752204105575</v>
       </c>
       <c r="U28" t="n">
-        <v>1793.559266911353</v>
+        <v>1793.559266911351</v>
       </c>
       <c r="V28" t="n">
-        <v>1547.757068167043</v>
+        <v>1547.757068167041</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.22218759166</v>
+        <v>1267.222187591658</v>
       </c>
       <c r="X28" t="n">
-        <v>1048.11492615522</v>
+        <v>1048.114926155218</v>
       </c>
       <c r="Y28" t="n">
-        <v>836.2046364732672</v>
+        <v>836.2046364732647</v>
       </c>
     </row>
     <row r="29">
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6552,16 +6552,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6619,13 +6619,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6634,10 +6634,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
         <v>2639.297491717215</v>
@@ -6652,16 +6652,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6777,28 +6777,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>184.7035232280589</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319315</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150014</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942646</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580104</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384014</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6859,31 +6859,31 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931272</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532431</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.79828551875</v>
@@ -6901,7 +6901,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,31 +7114,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,7 +7169,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7260,19 +7260,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7318,13 +7318,13 @@
         <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150024</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2104.342122433612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2527.96527192868</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.96527192868</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -22547,16 +22547,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,16 +22601,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>224.096625758812</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>339.9661108572911</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22714,7 +22714,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>116.9517271926982</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -22750,19 +22750,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>165.0372986783263</v>
       </c>
     </row>
     <row r="5">
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>3.727996117236671</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>66.09406519747952</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>111.1976478713721</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>100.7734165143923</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>41.54258064659153</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>106.4657939283483</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>72.11969353038575</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>191.8807364711618</v>
+        <v>265.2846401830236</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>139.8220064512507</v>
+        <v>139.8220064512508</v>
       </c>
       <c r="E28" t="n">
-        <v>137.6404960796075</v>
+        <v>137.6404960796076</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>91.8596436677455</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>91.85964366774235</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1394731.376399663</v>
+        <v>1394731.376399662</v>
       </c>
     </row>
     <row r="11">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32904.09773687494</v>
+        <v>32904.09773687493</v>
       </c>
       <c r="C2" t="n">
         <v>41052.08849321418</v>
@@ -26323,34 +26323,34 @@
         <v>40357.32998450031</v>
       </c>
       <c r="F2" t="n">
+        <v>40357.32998450029</v>
+      </c>
+      <c r="G2" t="n">
+        <v>40357.32998450031</v>
+      </c>
+      <c r="H2" t="n">
+        <v>40357.32998450028</v>
+      </c>
+      <c r="I2" t="n">
         <v>40357.3299845003</v>
-      </c>
-      <c r="G2" t="n">
-        <v>40357.3299845003</v>
-      </c>
-      <c r="H2" t="n">
-        <v>40357.3299845003</v>
-      </c>
-      <c r="I2" t="n">
-        <v>40357.32998450029</v>
       </c>
       <c r="J2" t="n">
         <v>40608.90191777582</v>
       </c>
       <c r="K2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="M2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="N2" t="n">
+        <v>41052.0884932142</v>
+      </c>
+      <c r="O2" t="n">
         <v>41052.08849321419</v>
-      </c>
-      <c r="O2" t="n">
-        <v>41052.08849321422</v>
       </c>
       <c r="P2" t="n">
         <v>41052.08849321419</v>
@@ -26390,22 +26390,22 @@
         <v>224565.9756508468</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.94474006246</v>
+        <v>12392.94474006257</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569339</v>
+        <v>7034.773253569281</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.94474006245</v>
+        <v>12392.94474006257</v>
       </c>
     </row>
     <row r="4">
@@ -26418,16 +26418,16 @@
         <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186743</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
@@ -26439,16 +26439,16 @@
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>17720.18476944066</v>
+        <v>17720.18476944063</v>
       </c>
       <c r="K4" t="n">
+        <v>22817.55530496084</v>
+      </c>
+      <c r="L4" t="n">
         <v>22817.55530496083</v>
       </c>
-      <c r="L4" t="n">
-        <v>22817.55530496085</v>
-      </c>
       <c r="M4" t="n">
-        <v>22817.55530496085</v>
+        <v>22817.55530496083</v>
       </c>
       <c r="N4" t="n">
         <v>22817.55530496082</v>
@@ -26457,7 +26457,7 @@
         <v>22817.55530496083</v>
       </c>
       <c r="P4" t="n">
-        <v>22817.55530496082</v>
+        <v>22817.55530496083</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1404359.235541117</v>
+        <v>-1404766.635078934</v>
       </c>
       <c r="C6" t="n">
         <v>-160478.5961722317</v>
@@ -26528,40 +26528,40 @@
         <v>-160478.5961722317</v>
       </c>
       <c r="E6" t="n">
-        <v>-401004.3576886294</v>
+        <v>-401039.0956140651</v>
       </c>
       <c r="F6" t="n">
-        <v>-75591.89588127418</v>
+        <v>-75626.63380670994</v>
       </c>
       <c r="G6" t="n">
-        <v>-75591.89588127418</v>
+        <v>-75626.63380670981</v>
       </c>
       <c r="H6" t="n">
-        <v>-75591.89588127418</v>
+        <v>-75626.63380670988</v>
       </c>
       <c r="I6" t="n">
-        <v>-75591.89588127419</v>
+        <v>-75626.63380670987</v>
       </c>
       <c r="J6" t="n">
-        <v>-303539.0462672367</v>
+        <v>-303561.2055960085</v>
       </c>
       <c r="K6" t="n">
-        <v>-97322.52740572448</v>
+        <v>-97322.52740572461</v>
       </c>
       <c r="L6" t="n">
-        <v>-84929.58266566208</v>
+        <v>-84929.58266566199</v>
       </c>
       <c r="M6" t="n">
-        <v>-169984.6106011739</v>
+        <v>-169984.6106011738</v>
       </c>
       <c r="N6" t="n">
-        <v>-84929.58266566203</v>
+        <v>-84929.58266566202</v>
       </c>
       <c r="O6" t="n">
-        <v>-91964.35591923134</v>
+        <v>-91964.35591923133</v>
       </c>
       <c r="P6" t="n">
-        <v>-97322.52740572448</v>
+        <v>-97322.52740572461</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26707,10 +26707,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.79346656696165</v>
+        <v>8.793466566961541</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203973</v>
@@ -26725,7 +26725,7 @@
         <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.401455402293</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.79346656696165</v>
+        <v>8.793466566961584</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507808</v>
+        <v>15.49118092507821</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961675</v>
+        <v>8.793466566961602</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507807</v>
+        <v>15.49118092507821</v>
       </c>
     </row>
     <row r="3">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.79346656696165</v>
+        <v>8.793466566961584</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507808</v>
+        <v>15.49118092507821</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>108.8774149194505</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>128.7069083671941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>126.1901284846891</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,10 +27828,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>153.1747256376275</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>88.97093889839016</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>36.27326250724082</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>71.82060879982606</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28068,16 +28068,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>19.11332986364852</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.487406060387629e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.79346656696165</v>
+        <v>8.793466566961541</v>
       </c>
       <c r="C28" t="n">
-        <v>8.79346656696165</v>
+        <v>8.793466566961541</v>
       </c>
       <c r="D28" t="n">
-        <v>8.79346656696165</v>
+        <v>8.793466566961541</v>
       </c>
       <c r="E28" t="n">
-        <v>8.79346656696165</v>
+        <v>8.793466566961541</v>
       </c>
       <c r="F28" t="n">
-        <v>8.79346656696165</v>
+        <v>8.793466566961541</v>
       </c>
       <c r="G28" t="n">
-        <v>8.79346656696165</v>
+        <v>8.793466566961541</v>
       </c>
       <c r="H28" t="n">
-        <v>8.79346656696165</v>
+        <v>8.793466566961541</v>
       </c>
       <c r="I28" t="n">
-        <v>8.79346656696165</v>
+        <v>8.793466566961541</v>
       </c>
       <c r="J28" t="n">
-        <v>8.79346656696165</v>
+        <v>8.793466566961541</v>
       </c>
       <c r="K28" t="n">
-        <v>8.79346656696165</v>
+        <v>8.793466566961541</v>
       </c>
       <c r="L28" t="n">
-        <v>8.79346656696165</v>
+        <v>8.793466566961541</v>
       </c>
       <c r="M28" t="n">
-        <v>8.79346656696165</v>
+        <v>8.793466566961541</v>
       </c>
       <c r="N28" t="n">
-        <v>8.79346656696165</v>
+        <v>8.793466566961541</v>
       </c>
       <c r="O28" t="n">
-        <v>8.79346656696165</v>
+        <v>8.793466566961541</v>
       </c>
       <c r="P28" t="n">
-        <v>8.79346656696165</v>
+        <v>8.793466566961541</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.79346656696165</v>
+        <v>8.793466566961541</v>
       </c>
       <c r="R28" t="n">
-        <v>8.79346656696165</v>
+        <v>8.793466566961541</v>
       </c>
       <c r="S28" t="n">
-        <v>8.79346656696165</v>
+        <v>8.793466566961541</v>
       </c>
       <c r="T28" t="n">
-        <v>8.79346656696165</v>
+        <v>8.793466566961541</v>
       </c>
       <c r="U28" t="n">
-        <v>8.79346656696165</v>
+        <v>8.793466566961541</v>
       </c>
       <c r="V28" t="n">
-        <v>8.79346656696165</v>
+        <v>8.793466566961541</v>
       </c>
       <c r="W28" t="n">
-        <v>8.79346656696165</v>
+        <v>8.793466566961541</v>
       </c>
       <c r="X28" t="n">
-        <v>8.79346656696165</v>
+        <v>8.793466566961541</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.79346656696165</v>
+        <v>8.793466566961541</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="32">
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31835,25 +31835,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,16 +32087,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32315,16 +32315,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>209.9499448422519</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,7 +32333,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32561,13 +32561,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>466.5925882502527</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>270.97169333569</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159405</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>729.084476357169</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33272,10 +33272,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,7 +33284,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33497,31 +33497,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>216.857296338707</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>729.0844763571695</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>528.7932908500043</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.0290152085043</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35483,25 +35483,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,16 +35735,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>71.3955650623777</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,7 +35981,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36209,13 +36209,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>132.4173135558158</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193496</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>586.9504424351506</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.8399498299151</v>
+        <v>89.8399498299149</v>
       </c>
       <c r="K28" t="n">
-        <v>273.1260549765967</v>
+        <v>273.1260549765965</v>
       </c>
       <c r="L28" t="n">
-        <v>403.1354808860932</v>
+        <v>403.135480886093</v>
       </c>
       <c r="M28" t="n">
-        <v>435.0658935680069</v>
+        <v>435.0658935680067</v>
       </c>
       <c r="N28" t="n">
-        <v>430.4195995568692</v>
+        <v>430.419599556869</v>
       </c>
       <c r="O28" t="n">
-        <v>382.0553662730072</v>
+        <v>382.0553662730069</v>
       </c>
       <c r="P28" t="n">
-        <v>304.4252398735866</v>
+        <v>304.4252398735865</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.19572386686</v>
+        <v>129.1957238668599</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36920,10 +36920,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37145,31 +37145,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>90.01966967204031</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>586.9504424351511</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>386.659256927986</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.34951124454038</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
